--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Sub_project\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1432E3FB-2E74-4821-88A5-3B0FB2CD96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE14D6-665A-4BF8-BC99-DB8729EF8F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5930" yWindow="3880" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">전사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>warrior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,32 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kobold</t>
+  </si>
+  <si>
+    <t>Kobold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>[10001001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcherChar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,26 +516,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -539,10 +561,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -597,35 +619,61 @@
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4">
+      <c r="I5">
         <v>10000</v>
       </c>
     </row>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CE14D6-665A-4BF8-BC99-DB8729EF8F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C1AE8-D342-4B3F-99F0-B7C7411ADB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5930" yWindow="3880" windowWidth="19200" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharData" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>[1001.1002.1003.1004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 Stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,23 +519,23 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,10 +561,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,56 +619,56 @@
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>21</v>
